--- a/tut05/output/0401EE19.xlsx
+++ b/tut05/output/0401EE19.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.73469387755102</v>
+        <v>7.73</v>
       </c>
       <c r="C6" t="n">
-        <v>5.727272727272728</v>
+        <v>5.73</v>
       </c>
       <c r="D6" t="n">
-        <v>7.413043478260869</v>
+        <v>7.41</v>
       </c>
       <c r="E6" t="n">
-        <v>7.347826086956522</v>
+        <v>7.35</v>
       </c>
       <c r="F6" t="n">
-        <v>7.923076923076923</v>
+        <v>7.92</v>
       </c>
       <c r="G6" t="n">
-        <v>7.725</v>
+        <v>7.72</v>
       </c>
       <c r="H6" t="n">
-        <v>8.55813953488372</v>
+        <v>8.56</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.73469387755102</v>
+        <v>7.73</v>
       </c>
       <c r="C8" t="n">
-        <v>6.78494623655914</v>
+        <v>6.78</v>
       </c>
       <c r="D8" t="n">
-        <v>6.992805755395683</v>
+        <v>6.99</v>
       </c>
       <c r="E8" t="n">
-        <v>7.081081081081081</v>
+        <v>7.08</v>
       </c>
       <c r="F8" t="n">
-        <v>7.227678571428571</v>
+        <v>7.23</v>
       </c>
       <c r="G8" t="n">
-        <v>7.303030303030303</v>
+        <v>7.3</v>
       </c>
       <c r="H8" t="n">
-        <v>7.478827361563518</v>
+        <v>7.48</v>
       </c>
       <c r="I8" t="n">
-        <v>7.536231884057971</v>
+        <v>7.54</v>
       </c>
     </row>
   </sheetData>
